--- a/data/pca/factorExposure/factorExposure_2011-12-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01316918669766153</v>
+        <v>-0.01347142372323895</v>
       </c>
       <c r="C2">
-        <v>0.03302101094079157</v>
+        <v>-0.02635182788910238</v>
       </c>
       <c r="D2">
-        <v>0.01736935351320171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02211306322205574</v>
+      </c>
+      <c r="E2">
+        <v>0.007596113456705211</v>
+      </c>
+      <c r="F2">
+        <v>-0.02559938783045911</v>
+      </c>
+      <c r="G2">
+        <v>0.003489717686401383</v>
+      </c>
+      <c r="H2">
+        <v>-0.0256825206177921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07630841124592207</v>
+        <v>-0.08923110765863448</v>
       </c>
       <c r="C4">
-        <v>0.05628254456851401</v>
+        <v>-0.03823437814608458</v>
       </c>
       <c r="D4">
-        <v>0.07733110711954255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06940309973549327</v>
+      </c>
+      <c r="E4">
+        <v>0.008989123259009016</v>
+      </c>
+      <c r="F4">
+        <v>-0.03919853083630941</v>
+      </c>
+      <c r="G4">
+        <v>-0.0172424140351783</v>
+      </c>
+      <c r="H4">
+        <v>0.04179248955732685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1108729624577081</v>
+        <v>-0.1242237897826735</v>
       </c>
       <c r="C6">
-        <v>0.05531849763171839</v>
+        <v>-0.04023397216519569</v>
       </c>
       <c r="D6">
-        <v>0.001721033125324792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.007948280454262361</v>
+      </c>
+      <c r="E6">
+        <v>-0.02609417624193845</v>
+      </c>
+      <c r="F6">
+        <v>-0.05261433174272771</v>
+      </c>
+      <c r="G6">
+        <v>-0.02362531467460285</v>
+      </c>
+      <c r="H6">
+        <v>-0.1260867482295981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05460656721848139</v>
+        <v>-0.06424693988351274</v>
       </c>
       <c r="C7">
-        <v>0.03239825551516422</v>
+        <v>-0.01702709219267837</v>
       </c>
       <c r="D7">
-        <v>0.02996026907172738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04989983399869603</v>
+      </c>
+      <c r="E7">
+        <v>0.03200894934272518</v>
+      </c>
+      <c r="F7">
+        <v>-0.03927169094610341</v>
+      </c>
+      <c r="G7">
+        <v>0.03423356528836508</v>
+      </c>
+      <c r="H7">
+        <v>0.01897881736079166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0389305595438337</v>
+        <v>-0.04238969346665183</v>
       </c>
       <c r="C8">
-        <v>0.01316680604078993</v>
+        <v>-0.008974656975417597</v>
       </c>
       <c r="D8">
-        <v>0.06327099317581716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02540328424176777</v>
+      </c>
+      <c r="E8">
+        <v>0.01400922678686328</v>
+      </c>
+      <c r="F8">
+        <v>-0.06893069467264203</v>
+      </c>
+      <c r="G8">
+        <v>-0.07670361789440565</v>
+      </c>
+      <c r="H8">
+        <v>-0.01929014281791302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07080483285103428</v>
+        <v>-0.08049700523127262</v>
       </c>
       <c r="C9">
-        <v>0.04084248318772647</v>
+        <v>-0.0241591988052137</v>
       </c>
       <c r="D9">
-        <v>0.07149136156555309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0638645774235657</v>
+      </c>
+      <c r="E9">
+        <v>0.0243145992013117</v>
+      </c>
+      <c r="F9">
+        <v>-0.03297850186072977</v>
+      </c>
+      <c r="G9">
+        <v>-0.03130543525025869</v>
+      </c>
+      <c r="H9">
+        <v>0.04575914218695085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02750323900009599</v>
+        <v>-0.04416382545938192</v>
       </c>
       <c r="C10">
-        <v>0.02239842130564507</v>
+        <v>-0.05649938773286524</v>
       </c>
       <c r="D10">
-        <v>-0.1731898589203203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1774286271360215</v>
+      </c>
+      <c r="E10">
+        <v>0.04116867969328639</v>
+      </c>
+      <c r="F10">
+        <v>-0.0499884923143554</v>
+      </c>
+      <c r="G10">
+        <v>0.03553555936019329</v>
+      </c>
+      <c r="H10">
+        <v>-0.05396775374566618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07119929805152679</v>
+        <v>-0.07570460851393754</v>
       </c>
       <c r="C11">
-        <v>0.04550871109523805</v>
+        <v>-0.02229825652193851</v>
       </c>
       <c r="D11">
-        <v>0.05300712267764597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06605537592753651</v>
+      </c>
+      <c r="E11">
+        <v>-0.00245667702824196</v>
+      </c>
+      <c r="F11">
+        <v>-0.03090299579142281</v>
+      </c>
+      <c r="G11">
+        <v>-0.04737177102275159</v>
+      </c>
+      <c r="H11">
+        <v>0.0711590112508779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06090626404670221</v>
+        <v>-0.06969584896797722</v>
       </c>
       <c r="C12">
-        <v>0.05381762055498213</v>
+        <v>-0.03404661666662336</v>
       </c>
       <c r="D12">
-        <v>0.04244565045476027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05079897875873914</v>
+      </c>
+      <c r="E12">
+        <v>0.012808052734723</v>
+      </c>
+      <c r="F12">
+        <v>-0.02150099668175721</v>
+      </c>
+      <c r="G12">
+        <v>-0.02835567910206865</v>
+      </c>
+      <c r="H12">
+        <v>0.03427311108517767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06809528065279037</v>
+        <v>-0.0675188939105537</v>
       </c>
       <c r="C13">
-        <v>0.03491637595270854</v>
+        <v>-0.01635942652740742</v>
       </c>
       <c r="D13">
-        <v>0.04016939044745645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03665347246661768</v>
+      </c>
+      <c r="E13">
+        <v>0.005738829386607722</v>
+      </c>
+      <c r="F13">
+        <v>-0.02829009484622894</v>
+      </c>
+      <c r="G13">
+        <v>-0.02965989490814874</v>
+      </c>
+      <c r="H13">
+        <v>0.04551389317049743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03261542292907095</v>
+        <v>-0.04042213781021481</v>
       </c>
       <c r="C14">
-        <v>0.03391900103824724</v>
+        <v>-0.02891607453840237</v>
       </c>
       <c r="D14">
-        <v>-0.008069916896243215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01245148743306337</v>
+      </c>
+      <c r="E14">
+        <v>0.02657352067205491</v>
+      </c>
+      <c r="F14">
+        <v>-0.0147235413432556</v>
+      </c>
+      <c r="G14">
+        <v>-0.02250576866581679</v>
+      </c>
+      <c r="H14">
+        <v>0.05677993302558957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04132795403376018</v>
+        <v>-0.04040818581689277</v>
       </c>
       <c r="C15">
-        <v>0.01082414924104329</v>
+        <v>-0.003384657079841916</v>
       </c>
       <c r="D15">
-        <v>0.0227785214321206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008572512421849129</v>
+      </c>
+      <c r="E15">
+        <v>0.03662421647430973</v>
+      </c>
+      <c r="F15">
+        <v>-0.003190742505640395</v>
+      </c>
+      <c r="G15">
+        <v>-0.03514563362647964</v>
+      </c>
+      <c r="H15">
+        <v>0.02291024348569187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05952473567736072</v>
+        <v>-0.07107706579890309</v>
       </c>
       <c r="C16">
-        <v>0.04284182855742814</v>
+        <v>-0.02493293978184175</v>
       </c>
       <c r="D16">
-        <v>0.05326973459667351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06413069201883664</v>
+      </c>
+      <c r="E16">
+        <v>0.007592068136000749</v>
+      </c>
+      <c r="F16">
+        <v>-0.02971566873053768</v>
+      </c>
+      <c r="G16">
+        <v>-0.02697543958656216</v>
+      </c>
+      <c r="H16">
+        <v>0.05454187840937247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06495918561449951</v>
+        <v>-0.06358329990969776</v>
       </c>
       <c r="C20">
-        <v>0.02902182831691042</v>
+        <v>-0.00939916595665909</v>
       </c>
       <c r="D20">
-        <v>0.04523029055744983</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03958648999288474</v>
+      </c>
+      <c r="E20">
+        <v>0.009212173187832249</v>
+      </c>
+      <c r="F20">
+        <v>-0.02813194887494417</v>
+      </c>
+      <c r="G20">
+        <v>-0.02504901733712233</v>
+      </c>
+      <c r="H20">
+        <v>0.04720567819110695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03174534738983904</v>
+        <v>-0.02867280081141618</v>
       </c>
       <c r="C21">
-        <v>0.004049090661597533</v>
+        <v>0.006481652925890113</v>
       </c>
       <c r="D21">
-        <v>0.01548214321959195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02122995022358328</v>
+      </c>
+      <c r="E21">
+        <v>0.04140447423360202</v>
+      </c>
+      <c r="F21">
+        <v>0.01588506506127396</v>
+      </c>
+      <c r="G21">
+        <v>-0.008099307185503212</v>
+      </c>
+      <c r="H21">
+        <v>-0.04800856025267288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.08061660893100697</v>
+        <v>-0.07125564599405181</v>
       </c>
       <c r="C22">
-        <v>0.06202574369555695</v>
+        <v>-0.02935191067309643</v>
       </c>
       <c r="D22">
-        <v>0.1467944178809735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1043563910582359</v>
+      </c>
+      <c r="E22">
+        <v>0.6094054866288794</v>
+      </c>
+      <c r="F22">
+        <v>0.06609668448021702</v>
+      </c>
+      <c r="G22">
+        <v>0.176775739191338</v>
+      </c>
+      <c r="H22">
+        <v>-0.1402130811909044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0816618836605626</v>
+        <v>-0.072179214238457</v>
       </c>
       <c r="C23">
-        <v>0.06055575105683279</v>
+        <v>-0.0278620349855774</v>
       </c>
       <c r="D23">
-        <v>0.1480601378766087</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1054189381832998</v>
+      </c>
+      <c r="E23">
+        <v>0.6114885711749997</v>
+      </c>
+      <c r="F23">
+        <v>0.06551249207028741</v>
+      </c>
+      <c r="G23">
+        <v>0.170793493279369</v>
+      </c>
+      <c r="H23">
+        <v>-0.1363331714398646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07786793822769436</v>
+        <v>-0.08144466384204736</v>
       </c>
       <c r="C24">
-        <v>0.05643666495840646</v>
+        <v>-0.03147247808406334</v>
       </c>
       <c r="D24">
-        <v>0.05599800213145592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06309534812008027</v>
+      </c>
+      <c r="E24">
+        <v>0.01224762915770405</v>
+      </c>
+      <c r="F24">
+        <v>-0.03620387013226688</v>
+      </c>
+      <c r="G24">
+        <v>-0.0400996211549</v>
+      </c>
+      <c r="H24">
+        <v>0.03689845951252882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07504568638738639</v>
+        <v>-0.07990752542825189</v>
       </c>
       <c r="C25">
-        <v>0.05676427248768486</v>
+        <v>-0.03450268529485179</v>
       </c>
       <c r="D25">
-        <v>0.05540321498444425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05226172211777261</v>
+      </c>
+      <c r="E25">
+        <v>0.0200124289629418</v>
+      </c>
+      <c r="F25">
+        <v>-0.033049664380484</v>
+      </c>
+      <c r="G25">
+        <v>-0.05209708552136316</v>
+      </c>
+      <c r="H25">
+        <v>0.04127766113586777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04668006369409749</v>
+        <v>-0.04633783673217175</v>
       </c>
       <c r="C26">
-        <v>0.01600346236641525</v>
+        <v>-0.004946274704967037</v>
       </c>
       <c r="D26">
-        <v>0.007170836623240822</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01880045268279323</v>
+      </c>
+      <c r="E26">
+        <v>0.04174879688975969</v>
+      </c>
+      <c r="F26">
+        <v>-0.03134004856642511</v>
+      </c>
+      <c r="G26">
+        <v>-0.01478786052859188</v>
+      </c>
+      <c r="H26">
+        <v>0.045880989066394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04390499356228027</v>
+        <v>-0.06778420770881512</v>
       </c>
       <c r="C28">
-        <v>0.06581758026204379</v>
+        <v>-0.1136382500620428</v>
       </c>
       <c r="D28">
-        <v>-0.3077376328140839</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2976836581744631</v>
+      </c>
+      <c r="E28">
+        <v>0.03779815053216532</v>
+      </c>
+      <c r="F28">
+        <v>-0.05394732647035663</v>
+      </c>
+      <c r="G28">
+        <v>-0.02180582318206745</v>
+      </c>
+      <c r="H28">
+        <v>-0.05062809104129919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04494896619191398</v>
+        <v>-0.04721778305869843</v>
       </c>
       <c r="C29">
-        <v>0.03205210339416771</v>
+        <v>-0.02310339665267414</v>
       </c>
       <c r="D29">
-        <v>0.002142464530589801</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01275317882914734</v>
+      </c>
+      <c r="E29">
+        <v>0.05696095633875962</v>
+      </c>
+      <c r="F29">
+        <v>-0.01107078227980183</v>
+      </c>
+      <c r="G29">
+        <v>-0.01212704184912812</v>
+      </c>
+      <c r="H29">
+        <v>0.06891916982404771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1293899445888608</v>
+        <v>-0.1278676066520842</v>
       </c>
       <c r="C30">
-        <v>0.09356326333902965</v>
+        <v>-0.05784457012712149</v>
       </c>
       <c r="D30">
-        <v>0.113993020758895</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0819758579107215</v>
+      </c>
+      <c r="E30">
+        <v>0.05496482797090928</v>
+      </c>
+      <c r="F30">
+        <v>-0.01256254768864877</v>
+      </c>
+      <c r="G30">
+        <v>-0.06128281913894832</v>
+      </c>
+      <c r="H30">
+        <v>-0.03090986647724589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04918503137866387</v>
+        <v>-0.04997740107891727</v>
       </c>
       <c r="C31">
-        <v>0.02511162483024703</v>
+        <v>-0.01074953274860113</v>
       </c>
       <c r="D31">
-        <v>0.01794895502285706</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03437734470481564</v>
+      </c>
+      <c r="E31">
+        <v>0.02547142101562997</v>
+      </c>
+      <c r="F31">
+        <v>-0.00728737617058917</v>
+      </c>
+      <c r="G31">
+        <v>-0.001382528794306311</v>
+      </c>
+      <c r="H31">
+        <v>0.0702807525474597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03410169463618833</v>
+        <v>-0.03786269411608773</v>
       </c>
       <c r="C32">
-        <v>0.02290871729793445</v>
+        <v>-0.02094707354649888</v>
       </c>
       <c r="D32">
-        <v>0.02922467061619297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01186030743599223</v>
+      </c>
+      <c r="E32">
+        <v>0.05140836453154111</v>
+      </c>
+      <c r="F32">
+        <v>0.005433506257549936</v>
+      </c>
+      <c r="G32">
+        <v>-0.04413423314039445</v>
+      </c>
+      <c r="H32">
+        <v>0.02517034051662044</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08705625944747107</v>
+        <v>-0.09472018797066391</v>
       </c>
       <c r="C33">
-        <v>0.04892166437874169</v>
+        <v>-0.02572704618780539</v>
       </c>
       <c r="D33">
-        <v>0.0462099786205658</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04972111815453366</v>
+      </c>
+      <c r="E33">
+        <v>0.01491928633834404</v>
+      </c>
+      <c r="F33">
+        <v>-0.003721266629433099</v>
+      </c>
+      <c r="G33">
+        <v>-0.01766464951577728</v>
+      </c>
+      <c r="H33">
+        <v>0.06821878245117773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05973319597890617</v>
+        <v>-0.0650493363099247</v>
       </c>
       <c r="C34">
-        <v>0.02658812943796228</v>
+        <v>-0.008898973825075783</v>
       </c>
       <c r="D34">
-        <v>0.0469459754729802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04820881144458662</v>
+      </c>
+      <c r="E34">
+        <v>0.005947793423100877</v>
+      </c>
+      <c r="F34">
+        <v>-0.02207533926254027</v>
+      </c>
+      <c r="G34">
+        <v>-0.03424657770318285</v>
+      </c>
+      <c r="H34">
+        <v>0.04522725612729985</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0372183870745462</v>
+        <v>-0.0386596790194142</v>
       </c>
       <c r="C35">
-        <v>0.01201851960805812</v>
+        <v>-0.004770007720883769</v>
       </c>
       <c r="D35">
-        <v>0.02085161445829896</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01611651649785123</v>
+      </c>
+      <c r="E35">
+        <v>0.02383667149949415</v>
+      </c>
+      <c r="F35">
+        <v>0.01836951221624684</v>
+      </c>
+      <c r="G35">
+        <v>0.004294751426058318</v>
+      </c>
+      <c r="H35">
+        <v>0.03482661683817308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02554672663116862</v>
+        <v>-0.02968136754586193</v>
       </c>
       <c r="C36">
-        <v>0.02038605563830593</v>
+        <v>-0.01533490751010704</v>
       </c>
       <c r="D36">
-        <v>0.0185899538142742</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01686276640799357</v>
+      </c>
+      <c r="E36">
+        <v>0.0295300835622973</v>
+      </c>
+      <c r="F36">
+        <v>-0.02867842174931469</v>
+      </c>
+      <c r="G36">
+        <v>-0.006906612308312322</v>
+      </c>
+      <c r="H36">
+        <v>0.05011877777275666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04777993587941529</v>
+        <v>-0.04756061189460363</v>
       </c>
       <c r="C38">
-        <v>0.005869763236772033</v>
+        <v>0.003935720242918544</v>
       </c>
       <c r="D38">
-        <v>0.01366045523621109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01862216605829273</v>
+      </c>
+      <c r="E38">
+        <v>0.04775375970907209</v>
+      </c>
+      <c r="F38">
+        <v>0.002177434060358175</v>
+      </c>
+      <c r="G38">
+        <v>-0.005698254517511382</v>
+      </c>
+      <c r="H38">
+        <v>0.02264849788386364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09157249674347218</v>
+        <v>-0.1013440901024442</v>
       </c>
       <c r="C39">
-        <v>0.06881499038116019</v>
+        <v>-0.04437335150539833</v>
       </c>
       <c r="D39">
-        <v>0.05427752123041448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06538082966127376</v>
+      </c>
+      <c r="E39">
+        <v>0.0009710429546924762</v>
+      </c>
+      <c r="F39">
+        <v>0.007014881515276279</v>
+      </c>
+      <c r="G39">
+        <v>-0.03954064608707586</v>
+      </c>
+      <c r="H39">
+        <v>0.02505980633764605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08115053469945657</v>
+        <v>-0.06308071895988396</v>
       </c>
       <c r="C40">
-        <v>0.03685119580524773</v>
+        <v>-0.003911070314633664</v>
       </c>
       <c r="D40">
-        <v>0.01090236148607491</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03407732396026011</v>
+      </c>
+      <c r="E40">
+        <v>0.03392959397485775</v>
+      </c>
+      <c r="F40">
+        <v>0.03812350450121751</v>
+      </c>
+      <c r="G40">
+        <v>-0.04668871352505882</v>
+      </c>
+      <c r="H40">
+        <v>-0.06704556255199978</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0462094322684734</v>
+        <v>-0.0477304932081182</v>
       </c>
       <c r="C41">
-        <v>0.01357524119430148</v>
+        <v>-0.0005653464865209636</v>
       </c>
       <c r="D41">
-        <v>0.03596965089482059</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03151298091619927</v>
+      </c>
+      <c r="E41">
+        <v>0.003819451478512229</v>
+      </c>
+      <c r="F41">
+        <v>0.01433954109166623</v>
+      </c>
+      <c r="G41">
+        <v>-0.009700039582961418</v>
+      </c>
+      <c r="H41">
+        <v>0.02789229018273922</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05453537132792369</v>
+        <v>-0.06124492315597622</v>
       </c>
       <c r="C43">
-        <v>0.02910569935177569</v>
+        <v>-0.01718039149589912</v>
       </c>
       <c r="D43">
-        <v>0.01045814345262941</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02825235912258077</v>
+      </c>
+      <c r="E43">
+        <v>0.02229191618144328</v>
+      </c>
+      <c r="F43">
+        <v>-0.0149081929033032</v>
+      </c>
+      <c r="G43">
+        <v>0.005454755009294522</v>
+      </c>
+      <c r="H43">
+        <v>0.06504040581527099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09656301382142683</v>
+        <v>-0.09411580079887294</v>
       </c>
       <c r="C44">
-        <v>0.08583256933563788</v>
+        <v>-0.0533217044001295</v>
       </c>
       <c r="D44">
-        <v>0.06754625326246513</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07117349440663737</v>
+      </c>
+      <c r="E44">
+        <v>0.06201482954897756</v>
+      </c>
+      <c r="F44">
+        <v>-0.08738893059013002</v>
+      </c>
+      <c r="G44">
+        <v>-0.07163882297200401</v>
+      </c>
+      <c r="H44">
+        <v>0.08738384274215555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02697389683522541</v>
+        <v>-0.03524544464508213</v>
       </c>
       <c r="C46">
-        <v>0.01765497618143274</v>
+        <v>-0.01133935828316573</v>
       </c>
       <c r="D46">
-        <v>0.0316369362905221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0360166552697128</v>
+      </c>
+      <c r="E46">
+        <v>0.03074858869249632</v>
+      </c>
+      <c r="F46">
+        <v>-0.01607036698622368</v>
+      </c>
+      <c r="G46">
+        <v>-0.004945074352375948</v>
+      </c>
+      <c r="H46">
+        <v>0.02099785570888467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03371476186877902</v>
+        <v>-0.04052576035338844</v>
       </c>
       <c r="C47">
-        <v>0.02461424449798099</v>
+        <v>-0.01933929008621438</v>
       </c>
       <c r="D47">
-        <v>-0.00195307458412917</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.00738375161702959</v>
+      </c>
+      <c r="E47">
+        <v>0.04029548849623042</v>
+      </c>
+      <c r="F47">
+        <v>0.008229962895386439</v>
+      </c>
+      <c r="G47">
+        <v>0.02897511287614184</v>
+      </c>
+      <c r="H47">
+        <v>0.02930348872707588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03725317232729067</v>
+        <v>-0.04055151309602804</v>
       </c>
       <c r="C48">
-        <v>0.02511825391496138</v>
+        <v>-0.01512640696223602</v>
       </c>
       <c r="D48">
-        <v>0.02751998036198597</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01991264392684718</v>
+      </c>
+      <c r="E48">
+        <v>0.03832928313772793</v>
+      </c>
+      <c r="F48">
+        <v>-0.009789891101337305</v>
+      </c>
+      <c r="G48">
+        <v>-0.01910486031793431</v>
+      </c>
+      <c r="H48">
+        <v>0.02611660918863172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1638053616494233</v>
+        <v>-0.2002793991605615</v>
       </c>
       <c r="C49">
-        <v>0.05330758938454603</v>
+        <v>-0.03549688196779648</v>
       </c>
       <c r="D49">
-        <v>-0.001222942796701173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02379734632430679</v>
+      </c>
+      <c r="E49">
+        <v>-0.1663278626211423</v>
+      </c>
+      <c r="F49">
+        <v>-0.04524164183575084</v>
+      </c>
+      <c r="G49">
+        <v>0.1660713029650927</v>
+      </c>
+      <c r="H49">
+        <v>-0.2169457330593378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04355805699007364</v>
+        <v>-0.04588224278498018</v>
       </c>
       <c r="C50">
-        <v>0.02609606088253423</v>
+        <v>-0.01341434449724082</v>
       </c>
       <c r="D50">
-        <v>0.03637686263253113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03993293934425703</v>
+      </c>
+      <c r="E50">
+        <v>0.03572314279135639</v>
+      </c>
+      <c r="F50">
+        <v>-0.004263861087708654</v>
+      </c>
+      <c r="G50">
+        <v>-0.005806280327248294</v>
+      </c>
+      <c r="H50">
+        <v>0.07974400825490527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02757322291839273</v>
+        <v>-0.03441390369245181</v>
       </c>
       <c r="C51">
-        <v>0.01113238161702381</v>
+        <v>-0.007140878002518216</v>
       </c>
       <c r="D51">
-        <v>-0.002774852341881347</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0008611796248980118</v>
+      </c>
+      <c r="E51">
+        <v>0.01307655923783444</v>
+      </c>
+      <c r="F51">
+        <v>-0.007934786935061994</v>
+      </c>
+      <c r="G51">
+        <v>0.01668479661094655</v>
+      </c>
+      <c r="H51">
+        <v>-0.01830732506523081</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1541843276515826</v>
+        <v>-0.1604088564747873</v>
       </c>
       <c r="C53">
-        <v>0.07584342195206932</v>
+        <v>-0.04623639527696352</v>
       </c>
       <c r="D53">
-        <v>-0.004471703927706684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02572538805553347</v>
+      </c>
+      <c r="E53">
+        <v>-0.03125029479846819</v>
+      </c>
+      <c r="F53">
+        <v>-0.002410769329429983</v>
+      </c>
+      <c r="G53">
+        <v>-0.02927897829274587</v>
+      </c>
+      <c r="H53">
+        <v>0.1949955657689425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05864986371923164</v>
+        <v>-0.05839178091786561</v>
       </c>
       <c r="C54">
-        <v>0.02426576860349351</v>
+        <v>-0.012702011573784</v>
       </c>
       <c r="D54">
-        <v>0.01583528415343287</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01474860828232249</v>
+      </c>
+      <c r="E54">
+        <v>0.05379457896327619</v>
+      </c>
+      <c r="F54">
+        <v>-0.01089793747299182</v>
+      </c>
+      <c r="G54">
+        <v>-0.05944863701442234</v>
+      </c>
+      <c r="H54">
+        <v>0.03665185697477212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.103691906408237</v>
+        <v>-0.103939046505564</v>
       </c>
       <c r="C55">
-        <v>0.05523158023853913</v>
+        <v>-0.03202954527640962</v>
       </c>
       <c r="D55">
-        <v>0.01417436992689694</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03016113556584674</v>
+      </c>
+      <c r="E55">
+        <v>0.002306719996089149</v>
+      </c>
+      <c r="F55">
+        <v>-0.01546988345899569</v>
+      </c>
+      <c r="G55">
+        <v>-0.03492538662401788</v>
+      </c>
+      <c r="H55">
+        <v>0.1558705181693869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1490626297647965</v>
+        <v>-0.156171579777733</v>
       </c>
       <c r="C56">
-        <v>0.08168446078711628</v>
+        <v>-0.04901185296074771</v>
       </c>
       <c r="D56">
-        <v>0.001244349146113416</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0404731090767266</v>
+      </c>
+      <c r="E56">
+        <v>-0.01490986268602168</v>
+      </c>
+      <c r="F56">
+        <v>-0.02407340990448966</v>
+      </c>
+      <c r="G56">
+        <v>-0.03391033498291691</v>
+      </c>
+      <c r="H56">
+        <v>0.196213478100395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.131263816552039</v>
+        <v>-0.0992782983368878</v>
       </c>
       <c r="C58">
-        <v>-0.01215673222230188</v>
+        <v>0.0564098560522825</v>
       </c>
       <c r="D58">
-        <v>0.04833094420031531</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03265321148283749</v>
+      </c>
+      <c r="E58">
+        <v>0.1221712622859661</v>
+      </c>
+      <c r="F58">
+        <v>-0.02546400085650045</v>
+      </c>
+      <c r="G58">
+        <v>0.08834208445593754</v>
+      </c>
+      <c r="H58">
+        <v>-0.1342116846389635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1181492008166635</v>
+        <v>-0.1446739588991894</v>
       </c>
       <c r="C59">
-        <v>0.07155630926521248</v>
+        <v>-0.1165441212364017</v>
       </c>
       <c r="D59">
-        <v>-0.3990108759174776</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3545061361532452</v>
+      </c>
+      <c r="E59">
+        <v>0.03247919386768041</v>
+      </c>
+      <c r="F59">
+        <v>0.001369184898762297</v>
+      </c>
+      <c r="G59">
+        <v>0.004220180948240726</v>
+      </c>
+      <c r="H59">
+        <v>0.01154449817668956</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2087485590231809</v>
+        <v>-0.2397090083810141</v>
       </c>
       <c r="C60">
-        <v>0.09318499739502531</v>
+        <v>-0.0602291413960552</v>
       </c>
       <c r="D60">
-        <v>0.009811716443737319</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04360876384734238</v>
+      </c>
+      <c r="E60">
+        <v>-0.1141721493903102</v>
+      </c>
+      <c r="F60">
+        <v>-0.04720285498022748</v>
+      </c>
+      <c r="G60">
+        <v>0.04185830087941959</v>
+      </c>
+      <c r="H60">
+        <v>-0.1457208724544157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07972122516721998</v>
+        <v>-0.08594636682306155</v>
       </c>
       <c r="C61">
-        <v>0.0457527077897949</v>
+        <v>-0.02726436182892402</v>
       </c>
       <c r="D61">
-        <v>0.03473758958526294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04411974225058752</v>
+      </c>
+      <c r="E61">
+        <v>0.006844915310640247</v>
+      </c>
+      <c r="F61">
+        <v>-0.005930850934687425</v>
+      </c>
+      <c r="G61">
+        <v>-0.03373616513298672</v>
+      </c>
+      <c r="H61">
+        <v>0.06075033006216145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1328123094775883</v>
+        <v>-0.1367144940160246</v>
       </c>
       <c r="C62">
-        <v>0.06116746187087944</v>
+        <v>-0.02968062618008038</v>
       </c>
       <c r="D62">
-        <v>-0.001303408499910685</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04148916994671648</v>
+      </c>
+      <c r="E62">
+        <v>-0.04686981479842469</v>
+      </c>
+      <c r="F62">
+        <v>0.006714440419308443</v>
+      </c>
+      <c r="G62">
+        <v>-0.06443244523923937</v>
+      </c>
+      <c r="H62">
+        <v>0.1908627287105741</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05193803493047214</v>
+        <v>-0.05074337243466354</v>
       </c>
       <c r="C63">
-        <v>0.02548971262665042</v>
+        <v>-0.01464709963642958</v>
       </c>
       <c r="D63">
-        <v>0.02329950105523164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02096782948446277</v>
+      </c>
+      <c r="E63">
+        <v>0.04559220894829913</v>
+      </c>
+      <c r="F63">
+        <v>0.004672397471478521</v>
+      </c>
+      <c r="G63">
+        <v>-0.0286054558573066</v>
+      </c>
+      <c r="H63">
+        <v>0.03356260242365425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1070241094191015</v>
+        <v>-0.1101274860633748</v>
       </c>
       <c r="C64">
-        <v>0.03710961072514222</v>
+        <v>-0.01772457612230354</v>
       </c>
       <c r="D64">
-        <v>0.02167309030463057</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02810086263007942</v>
+      </c>
+      <c r="E64">
+        <v>0.03733352387905007</v>
+      </c>
+      <c r="F64">
+        <v>-0.04169121692142942</v>
+      </c>
+      <c r="G64">
+        <v>-0.0596866622204337</v>
+      </c>
+      <c r="H64">
+        <v>0.02453005335033103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1258312797533996</v>
+        <v>-0.1282985029048891</v>
       </c>
       <c r="C65">
-        <v>0.05870130922704662</v>
+        <v>-0.04024312724325794</v>
       </c>
       <c r="D65">
-        <v>0.00869679965521852</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01115737957363798</v>
+      </c>
+      <c r="E65">
+        <v>-0.008685937943738235</v>
+      </c>
+      <c r="F65">
+        <v>-0.04619049469726708</v>
+      </c>
+      <c r="G65">
+        <v>-0.05830618349783161</v>
+      </c>
+      <c r="H65">
+        <v>-0.1589031721452342</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1471239102262311</v>
+        <v>-0.1515964781079869</v>
       </c>
       <c r="C66">
-        <v>0.07192719534126812</v>
+        <v>-0.03343686026130083</v>
       </c>
       <c r="D66">
-        <v>0.09827523429818265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1024357090642379</v>
+      </c>
+      <c r="E66">
+        <v>-0.02741573939844748</v>
+      </c>
+      <c r="F66">
+        <v>0.0014298476579137</v>
+      </c>
+      <c r="G66">
+        <v>-0.07137587733524133</v>
+      </c>
+      <c r="H66">
+        <v>0.08676339268764846</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07775442405545564</v>
+        <v>-0.08684445048327002</v>
       </c>
       <c r="C67">
-        <v>0.01238882631091312</v>
+        <v>7.511351878068174e-05</v>
       </c>
       <c r="D67">
-        <v>0.01912668270859099</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03005106844069661</v>
+      </c>
+      <c r="E67">
+        <v>0.01950123352151022</v>
+      </c>
+      <c r="F67">
+        <v>-0.01454007169133627</v>
+      </c>
+      <c r="G67">
+        <v>0.01032055483809427</v>
+      </c>
+      <c r="H67">
+        <v>0.01978349332849998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05246584249825773</v>
+        <v>-0.06166665906308677</v>
       </c>
       <c r="C68">
-        <v>0.04622617952867994</v>
+        <v>-0.08556867308103426</v>
       </c>
       <c r="D68">
-        <v>-0.260056889497123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2636956010756029</v>
+      </c>
+      <c r="E68">
+        <v>0.04648114465563923</v>
+      </c>
+      <c r="F68">
+        <v>-0.01517004211317038</v>
+      </c>
+      <c r="G68">
+        <v>-0.00237958980456209</v>
+      </c>
+      <c r="H68">
+        <v>0.01865721332281952</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05315502908244493</v>
+        <v>-0.05229967723113497</v>
       </c>
       <c r="C69">
-        <v>0.01914277629002462</v>
+        <v>-0.005251192408596813</v>
       </c>
       <c r="D69">
-        <v>0.02208082692640432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01944059082403151</v>
+      </c>
+      <c r="E69">
+        <v>0.0237237094257116</v>
+      </c>
+      <c r="F69">
+        <v>0.01333045043602203</v>
+      </c>
+      <c r="G69">
+        <v>-0.001908358955132096</v>
+      </c>
+      <c r="H69">
+        <v>0.04357146166251998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004193142443650399</v>
+        <v>-0.02870437614806131</v>
       </c>
       <c r="C70">
-        <v>-0.005922152230904495</v>
+        <v>0.001598165398840965</v>
       </c>
       <c r="D70">
-        <v>-0.01152789644308659</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.00756277950975905</v>
+      </c>
+      <c r="E70">
+        <v>-0.02363143792434179</v>
+      </c>
+      <c r="F70">
+        <v>0.007329099451316905</v>
+      </c>
+      <c r="G70">
+        <v>0.02773907176528192</v>
+      </c>
+      <c r="H70">
+        <v>-0.03518721351204362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05200423162251729</v>
+        <v>-0.06817186356891031</v>
       </c>
       <c r="C71">
-        <v>0.0476277883664435</v>
+        <v>-0.09708773412854654</v>
       </c>
       <c r="D71">
-        <v>-0.2942776448395378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2926457478778752</v>
+      </c>
+      <c r="E71">
+        <v>0.04587314848796175</v>
+      </c>
+      <c r="F71">
+        <v>-0.04289978425906016</v>
+      </c>
+      <c r="G71">
+        <v>-0.004312905272812941</v>
+      </c>
+      <c r="H71">
+        <v>0.01250813645128186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1413254816125144</v>
+        <v>-0.1441982543227263</v>
       </c>
       <c r="C72">
-        <v>0.06389398365720285</v>
+        <v>-0.0355615017130879</v>
       </c>
       <c r="D72">
-        <v>-0.009382264654760209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00219526061701906</v>
+      </c>
+      <c r="E72">
+        <v>-0.05066111388818539</v>
+      </c>
+      <c r="F72">
+        <v>0.1578645723591692</v>
+      </c>
+      <c r="G72">
+        <v>-0.1110265646282498</v>
+      </c>
+      <c r="H72">
+        <v>-0.008005669691268272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.284340398868945</v>
+        <v>-0.2889276279690057</v>
       </c>
       <c r="C73">
-        <v>0.09444039902501081</v>
+        <v>-0.02266248551104913</v>
       </c>
       <c r="D73">
-        <v>0.03746014654897166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09356432757279973</v>
+      </c>
+      <c r="E73">
+        <v>-0.2577029217145273</v>
+      </c>
+      <c r="F73">
+        <v>-0.07770195653089293</v>
+      </c>
+      <c r="G73">
+        <v>0.2843986200844095</v>
+      </c>
+      <c r="H73">
+        <v>-0.3697994184280791</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08387626030585406</v>
+        <v>-0.09258954395201335</v>
       </c>
       <c r="C74">
-        <v>0.07602631524713532</v>
+        <v>-0.05454785916022025</v>
       </c>
       <c r="D74">
-        <v>0.003687933752487979</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03843196531573663</v>
+      </c>
+      <c r="E74">
+        <v>-0.004157975913805203</v>
+      </c>
+      <c r="F74">
+        <v>-0.0002437985080117002</v>
+      </c>
+      <c r="G74">
+        <v>0.01502797659007233</v>
+      </c>
+      <c r="H74">
+        <v>0.1345098753268429</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1005343100026221</v>
+        <v>-0.1025826001424594</v>
       </c>
       <c r="C75">
-        <v>0.04782254208411152</v>
+        <v>-0.0207629466012461</v>
       </c>
       <c r="D75">
-        <v>0.01137822650403842</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02551574374865538</v>
+      </c>
+      <c r="E75">
+        <v>-0.000929935065639822</v>
+      </c>
+      <c r="F75">
+        <v>0.0002722781422561338</v>
+      </c>
+      <c r="G75">
+        <v>-0.0001990360638691419</v>
+      </c>
+      <c r="H75">
+        <v>0.09579836080937718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1324971326438331</v>
+        <v>-0.1416273000016467</v>
       </c>
       <c r="C76">
-        <v>0.07702775868128345</v>
+        <v>-0.04781902372307968</v>
       </c>
       <c r="D76">
-        <v>0.02423754613090255</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05366635166622506</v>
+      </c>
+      <c r="E76">
+        <v>0.01593695704071333</v>
+      </c>
+      <c r="F76">
+        <v>-0.0338537912886439</v>
+      </c>
+      <c r="G76">
+        <v>-0.04743028507393185</v>
+      </c>
+      <c r="H76">
+        <v>0.2166918607581377</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1196409578873631</v>
+        <v>-0.1028637892003823</v>
       </c>
       <c r="C77">
-        <v>0.02621417394567844</v>
+        <v>0.00995376217048231</v>
       </c>
       <c r="D77">
-        <v>0.0805147303747528</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0417998285682748</v>
+      </c>
+      <c r="E77">
+        <v>0.04282144533113139</v>
+      </c>
+      <c r="F77">
+        <v>-0.04834167915093542</v>
+      </c>
+      <c r="G77">
+        <v>-0.7698972207442092</v>
+      </c>
+      <c r="H77">
+        <v>-0.4235653380198113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1070896981796286</v>
+        <v>-0.1525062245739014</v>
       </c>
       <c r="C78">
-        <v>0.04142262503911794</v>
+        <v>-0.03517259193021986</v>
       </c>
       <c r="D78">
-        <v>0.090418469650522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07867039944647265</v>
+      </c>
+      <c r="E78">
+        <v>0.05441174151514227</v>
+      </c>
+      <c r="F78">
+        <v>-0.0536639521183049</v>
+      </c>
+      <c r="G78">
+        <v>-0.0377587321486314</v>
+      </c>
+      <c r="H78">
+        <v>-0.07452307173056569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1445959390082851</v>
+        <v>-0.1461169180584306</v>
       </c>
       <c r="C79">
-        <v>0.0694024403900594</v>
+        <v>-0.03401255710443815</v>
       </c>
       <c r="D79">
-        <v>0.01834954373669985</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0403100741560207</v>
+      </c>
+      <c r="E79">
+        <v>-0.01343295539462259</v>
+      </c>
+      <c r="F79">
+        <v>-0.01885290749448829</v>
+      </c>
+      <c r="G79">
+        <v>-0.0387371726054928</v>
+      </c>
+      <c r="H79">
+        <v>0.1525558223383846</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04139991653278832</v>
+        <v>-0.0426137558202242</v>
       </c>
       <c r="C80">
-        <v>0.01909404797751137</v>
+        <v>-0.01058234252762799</v>
       </c>
       <c r="D80">
-        <v>0.0315564443622765</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01476877910604098</v>
+      </c>
+      <c r="E80">
+        <v>-0.03904374104505291</v>
+      </c>
+      <c r="F80">
+        <v>-0.004224859887320779</v>
+      </c>
+      <c r="G80">
+        <v>0.01561572768078242</v>
+      </c>
+      <c r="H80">
+        <v>0.04680059056802919</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1221087068164409</v>
+        <v>-0.1242025163301056</v>
       </c>
       <c r="C81">
-        <v>0.05979406947716602</v>
+        <v>-0.03229585191028844</v>
       </c>
       <c r="D81">
-        <v>0.02682563133255346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02893383706702908</v>
+      </c>
+      <c r="E81">
+        <v>0.008341612518570551</v>
+      </c>
+      <c r="F81">
+        <v>-0.01592408416608867</v>
+      </c>
+      <c r="G81">
+        <v>-0.003044595370353299</v>
+      </c>
+      <c r="H81">
+        <v>0.1425795801548505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1341094809355476</v>
+        <v>-0.131394265162718</v>
       </c>
       <c r="C82">
-        <v>0.06752939030674375</v>
+        <v>-0.03695116771515319</v>
       </c>
       <c r="D82">
-        <v>-0.0006144148009475055</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03438230935572344</v>
+      </c>
+      <c r="E82">
+        <v>-0.02212359564984842</v>
+      </c>
+      <c r="F82">
+        <v>-0.04141973065802684</v>
+      </c>
+      <c r="G82">
+        <v>-0.03060969153147446</v>
+      </c>
+      <c r="H82">
+        <v>0.2111490427769191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.061261180445152</v>
+        <v>-0.07754655048935466</v>
       </c>
       <c r="C83">
-        <v>-0.0327386475093038</v>
+        <v>0.0414153034031203</v>
       </c>
       <c r="D83">
-        <v>0.02440026668578637</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01963222123329464</v>
+      </c>
+      <c r="E83">
+        <v>0.02267790856418698</v>
+      </c>
+      <c r="F83">
+        <v>-0.03185894863935761</v>
+      </c>
+      <c r="G83">
+        <v>0.0384462736248331</v>
+      </c>
+      <c r="H83">
+        <v>-0.02502281269879145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02519002702492897</v>
+        <v>-0.03228958290926982</v>
       </c>
       <c r="C84">
-        <v>0.0239709779289868</v>
+        <v>-0.01363504095208174</v>
       </c>
       <c r="D84">
-        <v>0.04076355699860844</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04063277109696865</v>
+      </c>
+      <c r="E84">
+        <v>0.01829502858775903</v>
+      </c>
+      <c r="F84">
+        <v>0.03685159243741109</v>
+      </c>
+      <c r="G84">
+        <v>0.03343248427802958</v>
+      </c>
+      <c r="H84">
+        <v>0.03938582480011228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1179993012851564</v>
+        <v>-0.1219264283745036</v>
       </c>
       <c r="C85">
-        <v>0.04107234628714704</v>
+        <v>-0.01552317952091627</v>
       </c>
       <c r="D85">
-        <v>0.05039384910673717</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.037963786411045</v>
+      </c>
+      <c r="E85">
+        <v>0.01791235938092876</v>
+      </c>
+      <c r="F85">
+        <v>-0.03688798411567765</v>
+      </c>
+      <c r="G85">
+        <v>-0.002222953226475192</v>
+      </c>
+      <c r="H85">
+        <v>0.1409056440775769</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05291885440747664</v>
+        <v>-0.05612948931094735</v>
       </c>
       <c r="C86">
-        <v>0.02477395305479368</v>
+        <v>-0.009280994032137984</v>
       </c>
       <c r="D86">
-        <v>0.06303591640389423</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03584848145301375</v>
+      </c>
+      <c r="E86">
+        <v>0.038796852963048</v>
+      </c>
+      <c r="F86">
+        <v>-0.01997346580246547</v>
+      </c>
+      <c r="G86">
+        <v>0.05135666973440981</v>
+      </c>
+      <c r="H86">
+        <v>-0.04035334620580718</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1244510617220103</v>
+        <v>-0.1267294845057688</v>
       </c>
       <c r="C87">
-        <v>0.07527076937395709</v>
+        <v>-0.03556334629916329</v>
       </c>
       <c r="D87">
-        <v>0.06636100599710032</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06876612666421206</v>
+      </c>
+      <c r="E87">
+        <v>0.01941837548292571</v>
+      </c>
+      <c r="F87">
+        <v>-0.01842112612782447</v>
+      </c>
+      <c r="G87">
+        <v>-0.1398649002414427</v>
+      </c>
+      <c r="H87">
+        <v>-0.08474466197551843</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05435502375249258</v>
+        <v>-0.0634655779978785</v>
       </c>
       <c r="C88">
-        <v>0.03196453141143376</v>
+        <v>-0.01994876689488201</v>
       </c>
       <c r="D88">
-        <v>0.02518807903948057</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03947744808598446</v>
+      </c>
+      <c r="E88">
+        <v>0.007955105404128877</v>
+      </c>
+      <c r="F88">
+        <v>-0.01973916839154442</v>
+      </c>
+      <c r="G88">
+        <v>-0.01537386500666229</v>
+      </c>
+      <c r="H88">
+        <v>0.04217684518579071</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08156021129413236</v>
+        <v>-0.1045075894048357</v>
       </c>
       <c r="C89">
-        <v>0.06700147218255616</v>
+        <v>-0.1218578361014555</v>
       </c>
       <c r="D89">
-        <v>-0.3228251781934852</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3396614969725768</v>
+      </c>
+      <c r="E89">
+        <v>0.06494909503271017</v>
+      </c>
+      <c r="F89">
+        <v>-0.0703011068840638</v>
+      </c>
+      <c r="G89">
+        <v>0.0165420059866234</v>
+      </c>
+      <c r="H89">
+        <v>0.02127482396692334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.06218065613789513</v>
+        <v>-0.08087149970921016</v>
       </c>
       <c r="C90">
-        <v>0.05519756047555233</v>
+        <v>-0.09959883273913507</v>
       </c>
       <c r="D90">
-        <v>-0.2812333374248444</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2810294149461561</v>
+      </c>
+      <c r="E90">
+        <v>0.05207086777966604</v>
+      </c>
+      <c r="F90">
+        <v>-0.02904792955552389</v>
+      </c>
+      <c r="G90">
+        <v>-0.02669134398298286</v>
+      </c>
+      <c r="H90">
+        <v>-0.01124443939575129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08977944265782972</v>
+        <v>-0.09050548990227458</v>
       </c>
       <c r="C91">
-        <v>0.04939462463745744</v>
+        <v>-0.02411080638911581</v>
       </c>
       <c r="D91">
-        <v>0.01383713102426558</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03295939670224097</v>
+      </c>
+      <c r="E91">
+        <v>0.006630544263881822</v>
+      </c>
+      <c r="F91">
+        <v>-0.001598176775418406</v>
+      </c>
+      <c r="G91">
+        <v>0.01546228657848152</v>
+      </c>
+      <c r="H91">
+        <v>0.0883106411885915</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06680799415531245</v>
+        <v>-0.0823264989139155</v>
       </c>
       <c r="C92">
-        <v>0.06257443140427599</v>
+        <v>-0.1135005946931893</v>
       </c>
       <c r="D92">
-        <v>-0.3357200580632504</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3295456990334358</v>
+      </c>
+      <c r="E92">
+        <v>0.05144659705193696</v>
+      </c>
+      <c r="F92">
+        <v>-0.0346474449488036</v>
+      </c>
+      <c r="G92">
+        <v>-0.00245812987282895</v>
+      </c>
+      <c r="H92">
+        <v>0.01909379146086013</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.05815254780602121</v>
+        <v>-0.07911966383360249</v>
       </c>
       <c r="C93">
-        <v>0.05949509487356389</v>
+        <v>-0.1103266138128188</v>
       </c>
       <c r="D93">
-        <v>-0.3010046213028847</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2960766220339484</v>
+      </c>
+      <c r="E93">
+        <v>0.02848022352988292</v>
+      </c>
+      <c r="F93">
+        <v>-0.02844192323341284</v>
+      </c>
+      <c r="G93">
+        <v>-0.01686819848461255</v>
+      </c>
+      <c r="H93">
+        <v>0.004375974527967209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1343866617645391</v>
+        <v>-0.1292868180132835</v>
       </c>
       <c r="C94">
-        <v>0.0434652997536996</v>
+        <v>-0.00809514628592474</v>
       </c>
       <c r="D94">
-        <v>0.04033673137307866</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0483478499129972</v>
+      </c>
+      <c r="E94">
+        <v>-0.01923459740736422</v>
+      </c>
+      <c r="F94">
+        <v>-0.01585457491678953</v>
+      </c>
+      <c r="G94">
+        <v>0.03010881295898691</v>
+      </c>
+      <c r="H94">
+        <v>0.1094740415623161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1203585166464926</v>
+        <v>-0.1286585182067601</v>
       </c>
       <c r="C95">
-        <v>0.01739906727364581</v>
+        <v>0.009801142863670171</v>
       </c>
       <c r="D95">
-        <v>0.05400032015658934</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05720519287673888</v>
+      </c>
+      <c r="E95">
+        <v>0.006313134177916156</v>
+      </c>
+      <c r="F95">
+        <v>-0.04935907773552305</v>
+      </c>
+      <c r="G95">
+        <v>-0.02500249074869374</v>
+      </c>
+      <c r="H95">
+        <v>-0.1003182035103376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2197271248106392</v>
+        <v>-0.1934519717912986</v>
       </c>
       <c r="C97">
-        <v>0.03785839232762761</v>
+        <v>0.01545432716021391</v>
       </c>
       <c r="D97">
-        <v>-0.09858384315839354</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06492921843650282</v>
+      </c>
+      <c r="E97">
+        <v>-0.07478140720053252</v>
+      </c>
+      <c r="F97">
+        <v>0.9369606997369145</v>
+      </c>
+      <c r="G97">
+        <v>-0.0329307113001691</v>
+      </c>
+      <c r="H97">
+        <v>-0.01754641007648959</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2410330179020669</v>
+        <v>-0.2725444708445087</v>
       </c>
       <c r="C98">
-        <v>0.0509390255732081</v>
+        <v>-0.01109067643497663</v>
       </c>
       <c r="D98">
-        <v>0.01152139108464991</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04058190090856863</v>
+      </c>
+      <c r="E98">
+        <v>-0.202459262113124</v>
+      </c>
+      <c r="F98">
+        <v>-0.04734749821710114</v>
+      </c>
+      <c r="G98">
+        <v>0.3376307050031428</v>
+      </c>
+      <c r="H98">
+        <v>-0.1853033385576828</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4109668862856143</v>
+        <v>-0.2640734202934554</v>
       </c>
       <c r="C99">
-        <v>-0.8926388260583749</v>
+        <v>0.918348458798489</v>
       </c>
       <c r="D99">
-        <v>-0.05002750077735342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2223997164594752</v>
+      </c>
+      <c r="E99">
+        <v>0.06960183348250516</v>
+      </c>
+      <c r="F99">
+        <v>-0.07813723511770247</v>
+      </c>
+      <c r="G99">
+        <v>-0.02260879598756261</v>
+      </c>
+      <c r="H99">
+        <v>0.07364330149867587</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04495890048938826</v>
+        <v>-0.04729165342911679</v>
       </c>
       <c r="C101">
-        <v>0.03231668798672772</v>
+        <v>-0.02341110443494838</v>
       </c>
       <c r="D101">
-        <v>0.002419122985321336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01283331048981716</v>
+      </c>
+      <c r="E101">
+        <v>0.05692531442609346</v>
+      </c>
+      <c r="F101">
+        <v>-0.01100852683780627</v>
+      </c>
+      <c r="G101">
+        <v>-0.01142135847525531</v>
+      </c>
+      <c r="H101">
+        <v>0.06788140948751833</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
